--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_Verify_PlaceOrder_SelfService_MultiUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_Verify_PlaceOrder_SelfService_MultiUser.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaibhav Oza\KAMAN_ECTEST_IE_SANITY-master\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6FADA3-1BD1-4A17-B0D9-3B813EA809CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC29_Verify_PlaceOrder_SS_MU" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
   <si>
     <t>TestCase</t>
   </si>
@@ -313,15 +314,9 @@
     <t>VERIFY_TEXT_PRESENT</t>
   </si>
   <si>
-    <t>PlaceOrderMsg</t>
-  </si>
-  <si>
     <t>PlaceOrderSuccess</t>
   </si>
   <si>
-    <t>Your Order has been Placed!</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
@@ -343,15 +338,9 @@
     <t>LoginButton</t>
   </si>
   <si>
-    <t>ShiptothisaddressLogin</t>
-  </si>
-  <si>
     <t>AddCardLogin</t>
   </si>
   <si>
-    <t>PlaceOrderSuccessNew</t>
-  </si>
-  <si>
     <t>$SelfService_MU_Username</t>
   </si>
   <si>
@@ -359,12 +348,21 @@
   </si>
   <si>
     <t>TC29_ Verify_PlaceOrder_SelfService_MultiUser</t>
+  </si>
+  <si>
+    <t>ShippingContinue</t>
+  </si>
+  <si>
+    <t>PlaceOrderSuccessMSG</t>
+  </si>
+  <si>
+    <t>Thank You</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -792,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -827,7 +825,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -853,10 +851,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -866,10 +864,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -882,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -897,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -909,10 +907,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -934,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -956,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -969,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -982,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -995,7 +993,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1011,7 +1009,7 @@
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3"/>
@@ -1026,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1048,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1061,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1080,17 +1078,17 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1114,7 +1112,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1127,7 +1125,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>83</v>
@@ -1136,7 +1134,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1157,23 +1155,23 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -1186,7 +1184,7 @@
         <v>84</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>84</v>
@@ -1195,13 +1193,13 @@
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -1214,7 +1212,7 @@
         <v>85</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>85</v>
@@ -1223,13 +1221,13 @@
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -1242,7 +1240,7 @@
         <v>86</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>86</v>
@@ -1251,13 +1249,13 @@
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1270,7 +1268,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>87</v>
@@ -1279,13 +1277,13 @@
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1298,7 +1296,7 @@
         <v>88</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>88</v>
@@ -1331,7 +1329,7 @@
         <v>89</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -1362,7 +1360,7 @@
         <v>91</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>91</v>
@@ -1377,7 +1375,7 @@
         <v>93</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>93</v>
@@ -1386,7 +1384,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5"/>
@@ -1401,7 +1399,7 @@
         <v>92</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>92</v>
@@ -1416,7 +1414,7 @@
         <v>92</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -1438,40 +1436,25 @@
         <v>97</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="6" t="s">
-        <v>9</v>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1483,11 +1466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1509,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1517,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1525,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1945,16 +1928,16 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>99</v>
+      <c r="A57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3" t="b">
         <v>1</v>
@@ -1962,7 +1945,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -1970,18 +1953,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2182,14 +2165,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2202,6 +2177,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
